--- a/assets/files/DigitalMediaInventoryTemplate.xlsx
+++ b/assets/files/DigitalMediaInventoryTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wvulib-foofight\Home$\edj00004\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.240.6.33\wvc$\Working Files\Resources_For_Born_Digital_Processing\TemplateAccessioningFileStructure\Administration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{472583E7-7E7A-4DA7-BEA3-399D28C97F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F42688CE-E8C1-4660-9FDB-F8C2742E4AEE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{553FA0FC-028B-497B-AF7E-00DF4D2AEDE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="7980" firstSheet="2" xr2:uid="{456D5D2E-B35D-4947-9F4F-B0BD11DB17C7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="7980" xr2:uid="{456D5D2E-B35D-4947-9F4F-B0BD11DB17C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -22,22 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Person Completing Inventory:</t>
   </si>
@@ -169,13 +159,16 @@
   </si>
   <si>
     <t>Zip disc</t>
+  </si>
+  <si>
+    <t>Optical disc (unidentified)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,10 +568,10 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
@@ -590,7 +583,7 @@
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="47.25">
+    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,7 +596,7 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="32.25">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -616,7 +609,7 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="31.5">
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -653,7 +646,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FBF36544-78FC-4E26-BC63-A3B80418C792}">
           <x14:formula1>
-            <xm:f>'Format Vocabulary'!$A$2:$A$19</xm:f>
+            <xm:f>'Format Vocabulary'!$A$2:$A$20</xm:f>
           </x14:formula1>
           <xm:sqref>G4:G360</xm:sqref>
         </x14:dataValidation>
@@ -668,10 +661,10 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -684,7 +677,7 @@
     <col min="9" max="9" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25">
+    <row r="1" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -699,7 +692,7 @@
       <c r="H1" s="10"/>
       <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5">
+    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -714,7 +707,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5">
+    <row r="3" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -743,7 +736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5">
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -772,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5">
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -806,19 +799,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5932670-3DF4-47D4-8C13-189731E6BC53}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -826,99 +819,104 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>43</v>
       </c>
     </row>
@@ -929,21 +927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C86CCEB7F3DB945AA2E897762518004" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e864a89c7bcdf6a924d422ae6761521">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a0e55d5d-7a74-4b33-a757-2f5b3f24fccd" xmlns:ns3="4c6aeffb-ce31-47bb-b81a-4876bc797bab" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="79f98f80c6590c5890ebfa8f86cd1898" ns2:_="" ns3:_="">
     <xsd:import namespace="a0e55d5d-7a74-4b33-a757-2f5b3f24fccd"/>
@@ -1122,14 +1105,53 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED21FC5-3822-4EBD-BED3-8A60B4899377}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC484C01-A423-481E-8E73-447CFE572975}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a0e55d5d-7a74-4b33-a757-2f5b3f24fccd"/>
+    <ds:schemaRef ds:uri="4c6aeffb-ce31-47bb-b81a-4876bc797bab"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F0BD061-4402-4CA9-879D-593B259A1934}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F0BD061-4402-4CA9-879D-593B259A1934}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC484C01-A423-481E-8E73-447CFE572975}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6ED21FC5-3822-4EBD-BED3-8A60B4899377}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>